--- a/results/24hr_logisticRegression.xlsx
+++ b/results/24hr_logisticRegression.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="C5" activeCellId="0" pane="topLeft" sqref="A2:C5"/>
@@ -502,6 +502,17 @@
         <v>0.783</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.783</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
